--- a/sheets/input/Pegan_Cove_South_Pond NSSC inputs from KvS 2017 w Toby 190103f.xlsx
+++ b/sheets/input/Pegan_Cove_South_Pond NSSC inputs from KvS 2017 w Toby 190103f.xlsx
@@ -524,7 +524,7 @@
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -548,8 +548,83 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -657,12 +732,54 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF948A54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDE0E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFCD5B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFDDE0E2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -703,7 +820,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -715,7 +832,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7B59"/>
-        <bgColor rgb="FFFF6600"/>
+        <bgColor rgb="FFD99694"/>
       </patternFill>
     </fill>
     <fill>
@@ -751,7 +868,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF948A54"/>
-        <bgColor rgb="FF808000"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -775,16 +892,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD5B5"/>
-        <bgColor rgb="FFFAC090"/>
+        <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -880,7 +1012,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -904,17 +1036,68 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="97">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -922,75 +1105,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="15" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -998,103 +1181,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="21" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1102,11 +1285,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="20" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1114,67 +1297,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="23" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="23" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1186,67 +1369,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="16" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1254,81 +1437,98 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="25" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="25" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Accent 1 17" xfId="20"/>
+    <cellStyle name="Accent 16" xfId="21"/>
+    <cellStyle name="Accent 2 18" xfId="22"/>
+    <cellStyle name="Accent 3 19" xfId="23"/>
+    <cellStyle name="Bad 13" xfId="24"/>
+    <cellStyle name="Error 15" xfId="25"/>
+    <cellStyle name="Footnote 8" xfId="26"/>
+    <cellStyle name="Good 11" xfId="27"/>
+    <cellStyle name="Heading 1 4" xfId="28"/>
+    <cellStyle name="Heading 2 5" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Hyperlink 9" xfId="31"/>
+    <cellStyle name="Neutral 12" xfId="32"/>
+    <cellStyle name="Note 7" xfId="33"/>
+    <cellStyle name="Status 10" xfId="34"/>
+    <cellStyle name="Text 6" xfId="35"/>
+    <cellStyle name="Warning 14" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC4BD97"/>
-      <rgbColor rgb="FF948A54"/>
+      <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF8EB4E3"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFCD5B5"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFDDE0E2"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF7B59"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDE0E2"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFF200"/>
@@ -1338,21 +1538,21 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFC4D79B"/>
-      <rgbColor rgb="FFC3D69B"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFCD5B5"/>
       <rgbColor rgb="FF93CDDD"/>
       <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFB3A2C7"/>
       <rgbColor rgb="FFFAC090"/>
       <rgbColor rgb="FF538DD5"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFC3D69B"/>
+      <rgbColor rgb="FFD99694"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF558ED5"/>
-      <rgbColor rgb="FFD99694"/>
+      <rgbColor rgb="FF948A54"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1373,13 +1573,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>281880</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:colOff>113760</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1388,8 +1588,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10836720" y="609480"/>
-          <a:ext cx="9928440" cy="7924320"/>
+          <a:off x="10836720" y="610200"/>
+          <a:ext cx="9928800" cy="7923240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1852,13 +2052,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>568080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3656880</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:colOff>3656520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1867,8 +2067,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13087080" y="1089360"/>
-          <a:ext cx="3088800" cy="593640"/>
+          <a:off x="13087080" y="1090080"/>
+          <a:ext cx="3088440" cy="593280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1939,14 +2139,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>292320</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>943200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>292680</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1966,15 +2166,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -1990,8 +2184,8 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>284040</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2011,15 +2205,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2030,13 +2218,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>943200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2056,15 +2244,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2075,13 +2257,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>45000</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:colOff>45360</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2090,8 +2272,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12519000" y="1607760"/>
-          <a:ext cx="11417040" cy="5325480"/>
+          <a:off x="12519000" y="1608480"/>
+          <a:ext cx="11417400" cy="5324400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2384,15 +2566,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2331720</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:colOff>2332080</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2405,8 +2587,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17213400" y="10911600"/>
-          <a:ext cx="2331720" cy="751680"/>
+          <a:off x="17214120" y="10912320"/>
+          <a:ext cx="2331360" cy="751320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2427,14 +2609,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>787320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2454,15 +2636,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2472,14 +2648,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>787320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>787680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2499,15 +2675,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2517,14 +2687,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>203040</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>787320</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2544,15 +2714,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2562,14 +2726,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>571680</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:colOff>240480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2579,7 +2743,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17571240" y="2555280"/>
-          <a:ext cx="4022640" cy="791640"/>
+          <a:ext cx="4022280" cy="791280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2660,13 +2824,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>266400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2676,7 +2840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17265960" y="4173120"/>
-          <a:ext cx="3087000" cy="0"/>
+          <a:ext cx="3087360" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2686,15 +2850,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2703,15 +2861,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:colOff>178560</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1087560</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:colOff>1087200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2720,8 +2878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16088760" y="2555280"/>
-          <a:ext cx="3086640" cy="791640"/>
+          <a:off x="16089480" y="2555280"/>
+          <a:ext cx="3085560" cy="791280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2788,14 +2946,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>15480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>198000</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2815,15 +2973,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2834,13 +2986,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>15480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15840</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2860,15 +3012,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2879,13 +3025,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>15480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>15480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2905,15 +3051,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2950,15 +3090,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -2974,8 +3108,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1088280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2995,15 +3129,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3013,14 +3141,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152640</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1088280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3040,15 +3168,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3057,15 +3179,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>86760</xdr:colOff>
+      <xdr:colOff>87480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>837720</xdr:colOff>
+      <xdr:colOff>837360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3074,8 +3196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10632600" y="1882080"/>
-          <a:ext cx="2927880" cy="1195560"/>
+          <a:off x="10633320" y="1882080"/>
+          <a:ext cx="2926800" cy="1195200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3145,15 +3267,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>267480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>830160</xdr:colOff>
+      <xdr:colOff>829800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3162,8 +3284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15166080" y="401400"/>
-          <a:ext cx="4198320" cy="989640"/>
+          <a:off x="15166800" y="402120"/>
+          <a:ext cx="4197240" cy="988560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3214,15 +3336,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>91800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:colOff>92520</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>649440</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:colOff>649800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3231,8 +3353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10637640" y="3218040"/>
-          <a:ext cx="9634320" cy="3488760"/>
+          <a:off x="10638360" y="3218040"/>
+          <a:ext cx="9633960" cy="3489120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3759,15 +3881,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1955520</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:colOff>1955880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1955520</xdr:colOff>
+      <xdr:colOff>1955880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3776,7 +3898,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15582960" y="3521520"/>
+          <a:off x="15583320" y="3521520"/>
           <a:ext cx="0" cy="1455480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3787,15 +3909,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3804,15 +3920,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>762120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:colOff>762840</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2852280</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:colOff>2851920</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3821,8 +3937,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14389560" y="5142240"/>
-          <a:ext cx="4063320" cy="789120"/>
+          <a:off x="14390280" y="5142240"/>
+          <a:ext cx="4062240" cy="789480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3875,13 +3991,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1562040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1562040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3901,15 +4017,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -3919,14 +4029,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1765440</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1739160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:colOff>1739520</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3935,8 +4045,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17366040" y="3729600"/>
-          <a:ext cx="5805360" cy="357480"/>
+          <a:off x="17366040" y="3730320"/>
+          <a:ext cx="5805720" cy="356400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3998,14 +4108,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>452520</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>452520</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4014,8 +4124,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16053120" y="7199280"/>
-          <a:ext cx="0" cy="1455480"/>
+          <a:off x="16053120" y="7199640"/>
+          <a:ext cx="0" cy="1455120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4025,15 +4135,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -4042,15 +4146,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>520560</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:colOff>521280</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2610720</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:colOff>2610360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4059,8 +4163,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14148000" y="6315480"/>
-          <a:ext cx="4063320" cy="791640"/>
+          <a:off x="14148720" y="6315480"/>
+          <a:ext cx="4062240" cy="792000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4111,15 +4215,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1955880</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:colOff>1956240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1955880</xdr:colOff>
+      <xdr:colOff>1956240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4128,7 +4232,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15583320" y="3521880"/>
+          <a:off x="15583680" y="3521880"/>
           <a:ext cx="0" cy="1455120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4139,15 +4243,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -4157,14 +4255,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>488160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4548240</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:colOff>4547880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4174,7 +4272,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8313120" y="3493440"/>
-          <a:ext cx="4060080" cy="776520"/>
+          <a:ext cx="4059720" cy="776880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4227,13 +4325,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1562040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1562040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4253,15 +4351,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -4270,15 +4362,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:colOff>284040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2639520</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:colOff>2639160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4287,8 +4379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13910760" y="3758400"/>
-          <a:ext cx="4329360" cy="354240"/>
+          <a:off x="13911480" y="3759120"/>
+          <a:ext cx="4328280" cy="353160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4354,15 +4446,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5384160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:colOff>5384520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4371,8 +4463,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4072680" y="76320"/>
-          <a:ext cx="5257080" cy="1746360"/>
+          <a:off x="4073400" y="76320"/>
+          <a:ext cx="5256720" cy="1746720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4434,14 +4526,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1955520</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2781000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4461,15 +4553,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -4479,14 +4565,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2781000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2781360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4506,15 +4592,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -4524,14 +4604,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1955520</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2781000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4551,15 +4631,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -4568,15 +4642,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2997360</xdr:colOff>
+      <xdr:colOff>2998080</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4990680</xdr:colOff>
+      <xdr:colOff>4991040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4585,8 +4659,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6942960" y="3195360"/>
-          <a:ext cx="1993320" cy="682560"/>
+          <a:off x="6943680" y="3195360"/>
+          <a:ext cx="1992960" cy="682200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4642,15 +4716,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>444240</xdr:colOff>
+      <xdr:colOff>444600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>53640</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4659,7 +4733,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6402240" y="3591360"/>
+          <a:off x="6402600" y="3591360"/>
           <a:ext cx="843480" cy="5040"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4670,15 +4744,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -4687,15 +4755,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>391320</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:colOff>392040</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>761400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:colOff>761760</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4704,8 +4772,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7583760" y="4498200"/>
-          <a:ext cx="5307840" cy="408240"/>
+          <a:off x="7584480" y="4498200"/>
+          <a:ext cx="5307480" cy="407880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4766,15 +4834,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:colOff>76320</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4783,8 +4851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7268400" y="3801960"/>
-          <a:ext cx="0" cy="1488600"/>
+          <a:off x="7268760" y="3801960"/>
+          <a:ext cx="0" cy="1488960"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4794,15 +4862,9 @@
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -4811,15 +4873,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:colOff>419760</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:colOff>202680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4828,8 +4890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7611480" y="3296880"/>
-          <a:ext cx="4721040" cy="433800"/>
+          <a:off x="7612200" y="3296880"/>
+          <a:ext cx="4720680" cy="433440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4880,15 +4942,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:colOff>407160</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>532800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:colOff>533160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4897,8 +4959,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7598880" y="3891240"/>
-          <a:ext cx="6298560" cy="728280"/>
+          <a:off x="7599600" y="3891240"/>
+          <a:ext cx="6298200" cy="728640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4956,13 +5018,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>675000</xdr:colOff>
+      <xdr:colOff>674640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4971,8 +5033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8121600" y="906840"/>
-          <a:ext cx="6986880" cy="3260880"/>
+          <a:off x="8121600" y="907560"/>
+          <a:ext cx="6986520" cy="3175920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5092,7 +5154,7 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.29"/>
@@ -5101,7 +5163,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5109,7 +5171,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -5123,7 +5185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -5133,7 +5195,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -5143,14 +5205,14 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -5158,7 +5220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -5166,7 +5228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -5174,13 +5236,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -5211,12 +5273,12 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.49"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="12" t="s">
         <v>118</v>
       </c>
@@ -5251,47 +5313,47 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="88" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="88" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="88" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="88" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="88" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="88" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="88" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="88" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="88" t="s">
         <v>140</v>
       </c>
@@ -5318,7 +5380,7 @@
       <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.7"/>
@@ -5329,7 +5391,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
@@ -5338,7 +5400,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5347,7 +5409,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
@@ -5356,7 +5418,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
@@ -5365,14 +5427,14 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
         <v>22</v>
       </c>
@@ -5381,7 +5443,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
@@ -5390,7 +5452,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
         <v>24</v>
       </c>
@@ -5399,20 +5461,20 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -5420,7 +5482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -5428,7 +5490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -5436,7 +5498,7 @@
         <v>1E-006</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -5444,13 +5506,13 @@
         <v>1E-007</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="14"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
@@ -5458,7 +5520,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
@@ -5466,25 +5528,25 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="16"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="16"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="16"/>
     </row>
-    <row r="21" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
         <v>15</v>
       </c>
@@ -5492,7 +5554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -5500,7 +5562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
@@ -5508,7 +5570,7 @@
         <v>1E-006</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
@@ -5516,13 +5578,13 @@
         <v>1E-007</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
@@ -5530,7 +5592,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
         <v>23</v>
       </c>
@@ -5538,25 +5600,25 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="16"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="16"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="16"/>
     </row>
-    <row r="31" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>15</v>
       </c>
@@ -5564,7 +5626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -5572,7 +5634,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
         <v>19</v>
       </c>
@@ -5580,7 +5642,7 @@
         <v>1E-006</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="s">
         <v>20</v>
       </c>
@@ -5603,7 +5665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
         <v>22</v>
       </c>
@@ -5627,7 +5689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
         <v>24</v>
       </c>
@@ -5647,7 +5709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
         <v>26</v>
       </c>
@@ -5669,7 +5731,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>17</v>
       </c>
@@ -5693,7 +5755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="s">
         <v>20</v>
       </c>
@@ -5715,7 +5777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
         <v>22</v>
       </c>
@@ -5739,7 +5801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
         <v>24</v>
       </c>
@@ -5759,7 +5821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
         <v>26</v>
       </c>
@@ -5767,7 +5829,7 @@
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
     </row>
-    <row r="51" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
         <v>15</v>
       </c>
@@ -5779,7 +5841,7 @@
       </c>
       <c r="E51" s="22"/>
     </row>
-    <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
@@ -5798,7 +5860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="s">
         <v>20</v>
       </c>
@@ -5806,13 +5868,13 @@
         <v>1E-007</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="14"/>
     </row>
-    <row r="56" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="s">
         <v>22</v>
       </c>
@@ -5820,7 +5882,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="s">
         <v>23</v>
       </c>
@@ -5828,25 +5890,25 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="16"/>
     </row>
-    <row r="59" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B59" s="16"/>
     </row>
-    <row r="60" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="16"/>
     </row>
-    <row r="61" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
         <v>15</v>
       </c>
@@ -5854,7 +5916,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -5862,7 +5924,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="s">
         <v>19</v>
       </c>
@@ -5870,7 +5932,7 @@
         <v>1E-006</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="s">
         <v>20</v>
       </c>
@@ -5878,13 +5940,13 @@
         <v>1E-007</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B65" s="14"/>
     </row>
-    <row r="66" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
         <v>22</v>
       </c>
@@ -5892,7 +5954,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="s">
         <v>23</v>
       </c>
@@ -5900,25 +5962,25 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B68" s="16"/>
     </row>
-    <row r="69" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B69" s="16"/>
     </row>
-    <row r="70" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B70" s="16"/>
     </row>
-    <row r="71" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11" t="s">
         <v>15</v>
       </c>
@@ -5926,7 +5988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>17</v>
       </c>
@@ -5934,7 +5996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
         <v>19</v>
       </c>
@@ -5942,7 +6004,7 @@
         <v>1E-006</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
         <v>20</v>
       </c>
@@ -5950,13 +6012,13 @@
         <v>1E-007</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B75" s="14"/>
     </row>
-    <row r="76" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
         <v>22</v>
       </c>
@@ -5964,7 +6026,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
         <v>23</v>
       </c>
@@ -5972,25 +6034,25 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B78" s="16"/>
     </row>
-    <row r="79" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B79" s="16"/>
     </row>
-    <row r="80" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B80" s="16"/>
     </row>
-    <row r="81" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="11" t="s">
         <v>15</v>
       </c>
@@ -5998,7 +6060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>17</v>
       </c>
@@ -6006,7 +6068,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="s">
         <v>19</v>
       </c>
@@ -6014,7 +6076,7 @@
         <v>1E-006</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
         <v>20</v>
       </c>
@@ -6022,13 +6084,13 @@
         <v>1E-007</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="14"/>
     </row>
-    <row r="86" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
         <v>22</v>
       </c>
@@ -6036,7 +6098,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
         <v>23</v>
       </c>
@@ -6044,19 +6106,19 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B88" s="16"/>
     </row>
-    <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B89" s="16"/>
     </row>
-    <row r="90" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="s">
         <v>26</v>
       </c>
@@ -6103,7 +6165,7 @@
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="12.7"/>
@@ -6114,7 +6176,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
         <v>53</v>
       </c>
@@ -6232,7 +6294,7 @@
       <c r="CF1" s="3"/>
       <c r="CG1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
@@ -6341,7 +6403,7 @@
       <c r="CF2" s="3"/>
       <c r="CG2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
@@ -6450,7 +6512,7 @@
       <c r="CF3" s="3"/>
       <c r="CG3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -6559,7 +6621,7 @@
       <c r="CF4" s="3"/>
       <c r="CG4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -6668,7 +6730,7 @@
       <c r="CF5" s="3"/>
       <c r="CG5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
@@ -6703,7 +6765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>48</v>
       </c>
@@ -6738,7 +6800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -6773,7 +6835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>51</v>
       </c>
@@ -6808,7 +6870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>52</v>
       </c>
@@ -6843,7 +6905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
         <v>54</v>
       </c>
@@ -6880,7 +6942,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
@@ -6898,7 +6960,7 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -6908,7 +6970,7 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -6918,7 +6980,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
         <v>60</v>
       </c>
@@ -6926,7 +6988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
         <v>61</v>
       </c>
@@ -6934,7 +6996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
         <v>62</v>
       </c>
@@ -6942,7 +7004,7 @@
         <v>2.24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
         <v>63</v>
       </c>
@@ -6950,19 +7012,19 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="30"/>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="30"/>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>66</v>
       </c>
@@ -7117,7 +7179,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="40" t="s">
         <v>67</v>
       </c>
@@ -7365,17 +7427,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="44" t="s">
         <v>68</v>
       </c>
@@ -7459,7 +7521,7 @@
       <c r="BI4" s="46"/>
       <c r="BJ4" s="46"/>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="47" t="s">
         <v>69</v>
       </c>
@@ -7543,7 +7605,7 @@
       <c r="BI5" s="46"/>
       <c r="BJ5" s="46"/>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="44" t="s">
         <v>70</v>
       </c>
@@ -7631,7 +7693,7 @@
         <v>5E-006</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="44" t="s">
         <v>71</v>
       </c>
@@ -10074,7 +10136,7 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.5"/>
@@ -10087,7 +10149,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="52" t="s">
         <v>74</v>
       </c>
@@ -10113,7 +10175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="55" t="s">
         <v>17</v>
       </c>
@@ -10139,7 +10201,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="55" t="s">
         <v>80</v>
       </c>
@@ -10165,7 +10227,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="55" t="s">
         <v>82</v>
       </c>
@@ -10191,7 +10253,7 @@
         <v>0.012</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="55" t="s">
         <v>85</v>
       </c>
@@ -10215,7 +10277,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="55" t="s">
         <v>89</v>
       </c>
@@ -10235,7 +10297,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="55" t="s">
         <v>91</v>
       </c>
@@ -10249,7 +10311,7 @@
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="55" t="s">
         <v>93</v>
       </c>
@@ -10263,7 +10325,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="55" t="s">
         <v>95</v>
       </c>
@@ -10277,7 +10339,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>97</v>
       </c>
@@ -10291,7 +10353,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>98</v>
       </c>
@@ -10341,7 +10403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="55" t="s">
         <v>17</v>
       </c>
@@ -10352,7 +10414,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="68"/>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="55" t="s">
         <v>80</v>
       </c>
@@ -10363,7 +10425,7 @@
       <c r="E15" s="69"/>
       <c r="F15" s="69"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="55" t="s">
         <v>82</v>
       </c>
@@ -10374,7 +10436,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="68"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="55" t="s">
         <v>85</v>
       </c>
@@ -10383,7 +10445,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="s">
         <v>89</v>
       </c>
@@ -10392,7 +10454,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="68"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="55" t="s">
         <v>91</v>
       </c>
@@ -10401,7 +10463,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="68"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="55" t="s">
         <v>93</v>
       </c>
@@ -10410,7 +10472,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="68"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="55" t="s">
         <v>95</v>
       </c>
@@ -10419,7 +10481,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="68"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>97</v>
       </c>
@@ -10428,7 +10490,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="68"/>
     </row>
-    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
@@ -10437,7 +10499,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="68"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
         <v>99</v>
       </c>
@@ -10446,7 +10508,7 @@
       <c r="E24" s="70"/>
       <c r="F24" s="68"/>
     </row>
-    <row r="25" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="52" t="s">
         <v>74</v>
       </c>
@@ -10454,7 +10516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="55" t="s">
         <v>17</v>
       </c>
@@ -10462,7 +10524,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="55" t="s">
         <v>80</v>
       </c>
@@ -10470,7 +10532,7 @@
         <v>0.431</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="55" t="s">
         <v>82</v>
       </c>
@@ -10478,55 +10540,55 @@
         <v>0.0276</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="55" t="s">
         <v>85</v>
       </c>
       <c r="B29" s="12"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="55" t="s">
         <v>89</v>
       </c>
       <c r="B30" s="16"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="55" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="61"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="55" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="61"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="55" t="s">
         <v>95</v>
       </c>
       <c r="B33" s="60"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="62"/>
     </row>
-    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B35" s="60"/>
     </row>
-    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="63"/>
     </row>
-    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>90</v>
       </c>
@@ -10557,7 +10619,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.7"/>
@@ -10565,7 +10627,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="71" t="s">
         <v>56</v>
       </c>
@@ -10573,13 +10635,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="49" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="73"/>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="74" t="s">
         <v>103</v>
       </c>
@@ -10587,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
         <v>77</v>
       </c>
@@ -10595,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="74" t="s">
         <v>79</v>
       </c>
@@ -10603,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="74" t="s">
         <v>76</v>
       </c>
@@ -10611,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="74" t="s">
         <v>78</v>
       </c>
@@ -10619,7 +10681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="74" t="s">
         <v>100</v>
       </c>
@@ -10630,7 +10692,7 @@
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="74" t="s">
         <v>101</v>
       </c>
@@ -10638,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="71" t="s">
         <v>56</v>
       </c>
@@ -10646,13 +10708,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="73"/>
     </row>
-    <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="74" t="s">
         <v>103</v>
       </c>
@@ -10660,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="74" t="s">
         <v>77</v>
       </c>
@@ -10668,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="74" t="s">
         <v>79</v>
       </c>
@@ -10676,7 +10738,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="74" t="s">
         <v>76</v>
       </c>
@@ -10684,7 +10746,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="74" t="s">
         <v>78</v>
       </c>
@@ -10692,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="74" t="s">
         <v>100</v>
       </c>
@@ -10700,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="74" t="s">
         <v>101</v>
       </c>
@@ -10711,7 +10773,7 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="71" t="s">
         <v>56</v>
       </c>
@@ -10719,13 +10781,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="49" t="s">
         <v>100</v>
       </c>
       <c r="B20" s="73"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="74" t="s">
         <v>103</v>
       </c>
@@ -10733,7 +10795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="74" t="s">
         <v>77</v>
       </c>
@@ -10741,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="74" t="s">
         <v>79</v>
       </c>
@@ -10749,7 +10811,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="74" t="s">
         <v>76</v>
       </c>
@@ -10757,7 +10819,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="74" t="s">
         <v>78</v>
       </c>
@@ -10765,7 +10827,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="74" t="s">
         <v>100</v>
       </c>
@@ -10776,7 +10838,7 @@
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="74" t="s">
         <v>101</v>
       </c>
@@ -10785,7 +10847,7 @@
       </c>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="71" t="s">
         <v>56</v>
       </c>
@@ -10793,13 +10855,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
         <v>101</v>
       </c>
       <c r="B29" s="74"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="74" t="s">
         <v>103</v>
       </c>
@@ -10807,7 +10869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="74" t="s">
         <v>77</v>
       </c>
@@ -10815,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="74" t="s">
         <v>79</v>
       </c>
@@ -10823,7 +10885,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="74" t="s">
         <v>76</v>
       </c>
@@ -10831,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="74" t="s">
         <v>78</v>
       </c>
@@ -10839,7 +10901,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="74" t="s">
         <v>100</v>
       </c>
@@ -10847,7 +10909,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="74" t="s">
         <v>101</v>
       </c>
@@ -10855,25 +10917,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="22"/>
       <c r="B43" s="22"/>
       <c r="C43" s="22"/>
     </row>
-    <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="22"/>
       <c r="B51" s="22"/>
       <c r="C51" s="22"/>
     </row>
-    <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="22"/>
     </row>
-    <row r="60" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
     </row>
-    <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22"/>
     </row>
   </sheetData>
@@ -10899,7 +10961,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="2" style="0" width="12.7"/>
@@ -10914,7 +10976,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="369" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -11554,7 +11616,7 @@
       <c r="TK1" s="22"/>
       <c r="TL1" s="22"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="76" t="s">
         <v>78</v>
       </c>
@@ -11719,7 +11781,7 @@
       <c r="MM2" s="22"/>
       <c r="MN2" s="22"/>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="76" t="s">
         <v>100</v>
       </c>
@@ -11884,7 +11946,7 @@
       <c r="MM3" s="22"/>
       <c r="MN3" s="22"/>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="76" t="s">
         <v>101</v>
       </c>
@@ -12068,11 +12130,11 @@
   </sheetPr>
   <dimension ref="A1:AW100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.2"/>
@@ -12083,7 +12145,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="31" style="0" width="11.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="85" t="s">
         <v>113</v>
       </c>
@@ -12128,7 +12190,7 @@
       </c>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="85"/>
       <c r="B2" s="12" t="s">
         <v>118</v>
@@ -12306,7 +12368,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -12316,7 +12378,7 @@
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -12326,7 +12388,7 @@
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
     </row>
-    <row r="15" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -12336,7 +12398,7 @@
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
     </row>
-    <row r="16" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -12346,7 +12408,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
     </row>
-    <row r="17" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -12356,7 +12418,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
     </row>
-    <row r="18" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -12366,7 +12428,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
-    <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -12376,7 +12438,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
     </row>
-    <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -12386,7 +12448,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
-    <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -12396,7 +12458,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
     </row>
-    <row r="22" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -12406,7 +12468,7 @@
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
-    <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -12416,7 +12478,7 @@
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
     </row>
-    <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -12426,7 +12488,7 @@
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
     </row>
-    <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -12436,7 +12498,7 @@
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
     </row>
-    <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -12446,7 +12508,7 @@
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
     </row>
-    <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -12456,7 +12518,7 @@
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
     </row>
-    <row r="28" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -12466,7 +12528,7 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
     </row>
-    <row r="29" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -12476,7 +12538,7 @@
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
     </row>
-    <row r="30" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -12486,7 +12548,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -12496,7 +12558,7 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
     </row>
-    <row r="32" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -12506,7 +12568,7 @@
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -12516,7 +12578,7 @@
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -12526,7 +12588,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -12536,7 +12598,7 @@
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
     </row>
-    <row r="36" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -12546,7 +12608,7 @@
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
     </row>
-    <row r="37" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -12556,7 +12618,7 @@
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
     </row>
-    <row r="38" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="89"/>
       <c r="B38" s="89"/>
       <c r="C38" s="89"/>
@@ -12566,12 +12628,12 @@
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
     </row>
-    <row r="39" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
         <v>141</v>
       </c>
       <c r="B39" s="91" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="C39" s="92" t="s">
         <v>142</v>
@@ -12584,7 +12646,7 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
     </row>
-    <row r="40" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="83" t="s">
         <v>144</v>
       </c>
@@ -12608,7 +12670,7 @@
       </c>
       <c r="H40" s="96"/>
     </row>
-    <row r="41" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="83" t="s">
         <v>151</v>
       </c>
@@ -12655,7 +12717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="83" t="s">
         <v>152</v>
       </c>
@@ -12702,7 +12764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="84" t="s">
         <v>153</v>
       </c>
@@ -12749,7 +12811,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="84"/>
       <c r="B44" s="84"/>
       <c r="C44" s="84"/>
@@ -12761,7 +12823,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="84"/>
       <c r="B45" s="84"/>
       <c r="C45" s="84"/>
@@ -12773,7 +12835,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="84"/>
       <c r="B46" s="84"/>
       <c r="C46" s="84"/>
@@ -12785,7 +12847,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="84"/>
       <c r="B47" s="84"/>
       <c r="C47" s="84"/>
@@ -12797,7 +12859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="84"/>
       <c r="B48" s="84"/>
       <c r="C48" s="84"/>
@@ -12809,7 +12871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="84"/>
       <c r="B49" s="84"/>
       <c r="C49" s="84"/>
@@ -12821,7 +12883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="84"/>
       <c r="B50" s="84"/>
       <c r="C50" s="84"/>
@@ -12833,7 +12895,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="84"/>
       <c r="B51" s="84"/>
       <c r="C51" s="84"/>
@@ -12845,7 +12907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="84"/>
       <c r="B52" s="84"/>
       <c r="C52" s="84"/>
@@ -12857,7 +12919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="84"/>
       <c r="B53" s="84"/>
       <c r="C53" s="84"/>
@@ -12869,7 +12931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="84"/>
       <c r="B54" s="84"/>
       <c r="C54" s="84"/>
@@ -12881,7 +12943,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="84"/>
       <c r="B55" s="84"/>
       <c r="C55" s="84"/>
@@ -12893,7 +12955,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="84"/>
       <c r="B56" s="84"/>
       <c r="C56" s="84"/>
@@ -12905,222 +12967,222 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW57" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW58" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW59" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW60" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW61" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW62" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW63" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW64" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW65" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW66" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW67" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW68" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW69" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW70" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW71" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW72" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW73" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW74" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW75" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW76" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW77" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW78" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW79" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW80" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW81" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW82" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW83" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW84" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW85" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW86" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW87" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW88" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW89" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW90" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW91" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW92" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW93" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW94" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW95" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW96" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW97" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW98" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AW99" s="0" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="22"/>
       <c r="B100" s="22" t="s">
         <v>90</v>

--- a/sheets/input/Pegan_Cove_South_Pond NSSC inputs from KvS 2017 w Toby 190103f.xlsx
+++ b/sheets/input/Pegan_Cove_South_Pond NSSC inputs from KvS 2017 w Toby 190103f.xlsx
@@ -7169,8 +7169,8 @@
   </sheetPr>
   <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12633,7 +12633,7 @@
         <v>141</v>
       </c>
       <c r="B39" s="91" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="C39" s="92" t="s">
         <v>142</v>
